--- a/docs/formatos/interaccionColaborativo.xlsx
+++ b/docs/formatos/interaccionColaborativo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Evaluaciones por módulo. Desde DD/MM/AAAA. Hasta DD/MM/AAAA.</t>
   </si>
@@ -69,7 +69,10 @@
     <t>Mensaje</t>
   </si>
   <si>
-    <t>Empresa: YYYYYYYYYY. Programa: Pensamiento estratégico. Tema: Espacio</t>
+    <t xml:space="preserve">Empresa: YYYYYYYYYY. Programa: Pensamiento estratégico. </t>
+  </si>
+  <si>
+    <t>Tema: Espacio</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -156,7 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -178,7 +180,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,120 +488,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/formatos/interaccionColaborativo.xlsx
+++ b/docs/formatos/interaccionColaborativo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Evaluaciones por módulo. Desde DD/MM/AAAA. Hasta DD/MM/AAAA.</t>
   </si>
@@ -73,13 +73,16 @@
   </si>
   <si>
     <t>Tema: Espacio</t>
+  </si>
+  <si>
+    <t>Hora de mensaje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +113,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -187,6 +198,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,10 +501,11 @@
     <col min="7" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="25.7109375" customWidth="1"/>
-    <col min="14" max="14" width="60.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -505,7 +523,7 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -523,7 +541,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -541,7 +559,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -581,11 +599,14 @@
       <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -599,7 +620,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" s="10"/>

--- a/docs/formatos/interaccionColaborativo.xlsx
+++ b/docs/formatos/interaccionColaborativo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22609"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E79BA18A-C8F5-43C1-9D1F-3A3DB3780DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,21 +13,38 @@
   <definedNames>
     <definedName name="USUARIOS_20150209" localSheetId="0">Hoja1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Evaluaciones por módulo. Desde DD/MM/AAAA. Hasta DD/MM/AAAA.</t>
   </si>
   <si>
+    <t xml:space="preserve">Empresa: YYYYYYYYYY. Programa: Pensamiento estratégico. </t>
+  </si>
+  <si>
+    <t>Tema: Espacio</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -36,6 +54,12 @@
     <t>Apellido</t>
   </si>
   <si>
+    <t>Fecha de Registro</t>
+  </si>
+  <si>
+    <t>Hora de Registro</t>
+  </si>
+  <si>
     <t>Correo</t>
   </si>
   <si>
@@ -57,32 +81,20 @@
     <t>Campo4</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Fecha de Registro</t>
-  </si>
-  <si>
     <t>Fecha de mensaje</t>
   </si>
   <si>
+    <t>Hora de mensaje</t>
+  </si>
+  <si>
     <t>Mensaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empresa: YYYYYYYYYY. Programa: Pensamiento estratégico. </t>
-  </si>
-  <si>
-    <t>Tema: Espacio</t>
-  </si>
-  <si>
-    <t>Hora de mensaje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,17 +205,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -478,159 +490,166 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="50.140625" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" customWidth="1"/>
+    <col min="16" max="16" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" ht="20.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:16" ht="20.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="20.25">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="N5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="35.1" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="8"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="8"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="10"/>
+    <row r="28" spans="7:7">
+      <c r="G28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/formatos/interaccionColaborativo.xlsx
+++ b/docs/formatos/interaccionColaborativo.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22609"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E79BA18A-C8F5-43C1-9D1F-3A3DB3780DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\formacion2.0\docs\formatos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -13,7 +17,7 @@
   <definedNames>
     <definedName name="USUARIOS_20150209" localSheetId="0">Hoja1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Evaluaciones por módulo. Desde DD/MM/AAAA. Hasta DD/MM/AAAA.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Empresa: YYYYYYYYYY. Programa: Pensamiento estratégico. </t>
   </si>
@@ -89,12 +90,18 @@
   <si>
     <t>Mensaje</t>
   </si>
+  <si>
+    <t>Interacción espacio colaborativo . Desde DD/MM/AAAA. Hasta DD/MM/AAAA.</t>
+  </si>
+  <si>
+    <t>Acceso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,11 +181,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -197,25 +201,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,14 +497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3764"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
@@ -515,136 +515,3896 @@
     <col min="14" max="14" width="25.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.85546875" customWidth="1"/>
     <col min="16" max="16" width="50.140625" customWidth="1"/>
+    <col min="17" max="17" width="129" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="20.25">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" ht="20.25">
-      <c r="A3" s="15" t="s">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="Q5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="8"/>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="12"/>
     </row>
-    <row r="28" spans="7:7">
-      <c r="G28" s="10"/>
-    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="774" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="775" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="776" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="777" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="778" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="779" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="780" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="781" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="782" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="783" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="784" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="785" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="786" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="787" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="788" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="789" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="790" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="791" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="792" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="793" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="794" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="795" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="796" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="797" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="798" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="799" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="800" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="801" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="802" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="803" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="804" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="805" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="806" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="807" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="808" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="809" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="810" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="811" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="812" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="813" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="814" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="815" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="816" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="817" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="818" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="819" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="820" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="821" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="822" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="823" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="824" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="825" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="826" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="827" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="828" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="829" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="830" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="831" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="832" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="833" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="834" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="835" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="836" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="837" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="838" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="839" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="840" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="841" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="842" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="843" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="844" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="845" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="846" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="847" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="848" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="849" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="850" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="851" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="852" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="853" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="854" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="855" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="856" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="857" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="858" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="859" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="860" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="861" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="862" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="863" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="864" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="865" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="866" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="867" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="868" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="869" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="870" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="871" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="872" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="873" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="874" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="875" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="876" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="877" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="878" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="879" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="880" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="881" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="882" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="883" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="884" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="885" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="886" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="887" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="888" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="889" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="890" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="891" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="892" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="893" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="894" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="895" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="896" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="897" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="898" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="899" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="900" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="901" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="902" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="903" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="904" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="905" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="906" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="907" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="908" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="909" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="910" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="911" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="912" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="913" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="914" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="915" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="916" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="917" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="918" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="919" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="920" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="921" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="922" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="923" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="924" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="925" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="926" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="927" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="928" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="929" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="930" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="931" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="932" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="933" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="934" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="935" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="936" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="937" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="938" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="939" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="940" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="941" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="942" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="943" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="944" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="945" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="946" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="947" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="948" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="949" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="950" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="951" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="952" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="953" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="954" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="955" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="956" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="957" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="958" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="959" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="960" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="961" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="962" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="963" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="964" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="965" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="966" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="967" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="968" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="969" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="970" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="971" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="972" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="973" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="974" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="975" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="976" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="977" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="978" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="979" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="980" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="981" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="982" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="983" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="984" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="985" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="986" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="987" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="988" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="989" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="990" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="991" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="992" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="993" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="994" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="995" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="996" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="997" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="998" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="999" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1057" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1058" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1059" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1060" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1061" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1062" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1063" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1064" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1065" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1066" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1067" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1068" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1069" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1070" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1071" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1072" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1073" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1074" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1075" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1076" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1077" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1078" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1079" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1080" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1081" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1082" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1083" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1084" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1085" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1086" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1087" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1088" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1089" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1090" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1091" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1092" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1093" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1094" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1095" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1096" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1097" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1098" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1499" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1500" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1501" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1502" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1503" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1504" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1505" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1506" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1507" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1508" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1509" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1510" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1511" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1512" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1513" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1514" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1515" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1516" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1517" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1518" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1519" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1520" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1521" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1522" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1523" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1524" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1525" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1526" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1527" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1528" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1529" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1530" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1531" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1532" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1533" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1534" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1535" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1536" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1538" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1539" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1540" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1541" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1542" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1543" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1544" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1545" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1546" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1547" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1548" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1549" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1550" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1551" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1552" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1553" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1554" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1555" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1556" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1557" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1558" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1559" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1560" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1561" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1562" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1563" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1564" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1565" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1566" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1567" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1568" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1569" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1570" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1571" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1572" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1573" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1574" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1575" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1576" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1577" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1578" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1579" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1580" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1581" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1582" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1583" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1584" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1585" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1586" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1587" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1588" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1589" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1590" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1591" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1592" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1593" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1594" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1595" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1596" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1597" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1598" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1599" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1600" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1601" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1602" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1603" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1604" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1605" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1606" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1607" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1608" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1609" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1610" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1611" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1612" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1613" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1614" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1615" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1616" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1617" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1618" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1619" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1620" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1621" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1622" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1623" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1624" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1625" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1626" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1627" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1628" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1629" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1630" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1631" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1632" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1633" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1634" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1635" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1636" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1637" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1638" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1639" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1640" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1641" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1642" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1643" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1644" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1645" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1646" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1647" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1648" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1649" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1650" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1651" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1652" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1653" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1654" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1655" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1656" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1657" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1658" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1659" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1660" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1661" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1662" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1663" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1664" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1665" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1666" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1667" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1668" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1669" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1670" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1671" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1672" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1673" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1674" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1675" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1676" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1677" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1678" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1679" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1680" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1681" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1682" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1683" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1684" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1685" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1686" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1687" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1688" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1689" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1690" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1691" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1692" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1693" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1694" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1695" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1696" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1697" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1698" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1699" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1700" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1701" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1702" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1703" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1704" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1705" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1706" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1707" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1708" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1709" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1710" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1711" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1712" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1713" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1714" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1715" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1716" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1717" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1718" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1719" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1720" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1721" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1722" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1723" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1724" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1725" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1726" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1727" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1728" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1729" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1730" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1731" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1732" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1733" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1734" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1735" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1736" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1737" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1738" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1739" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1740" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1741" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1742" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1743" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1744" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1745" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1746" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1747" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1748" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1749" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1750" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1751" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1752" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1753" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1754" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1755" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1756" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1757" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1758" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1759" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1760" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1761" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1762" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1763" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1764" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1765" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1766" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1767" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1768" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1769" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1770" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1771" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1772" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1773" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1774" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1775" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1776" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1777" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1778" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1779" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1780" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1781" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1782" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1783" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1784" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1785" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1786" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1787" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1788" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1789" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1790" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1791" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1792" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1793" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1794" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1795" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1796" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1797" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1798" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1799" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1800" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1801" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1802" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1803" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1804" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1805" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1806" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1807" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1808" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1809" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1810" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1811" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1812" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1813" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1814" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1815" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1816" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1817" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1818" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1819" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1820" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1821" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1822" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1823" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1824" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1825" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1826" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1827" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1828" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1829" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1830" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1831" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1832" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1833" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1834" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1835" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1836" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1837" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1838" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1839" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1840" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1841" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1842" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1843" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1844" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1845" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1846" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1847" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1848" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1849" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1850" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1851" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1852" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1853" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1854" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1855" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1856" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1857" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1858" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1859" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1860" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1861" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1862" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1863" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1864" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1865" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1866" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1867" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1868" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1869" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1870" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1871" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1872" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1873" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1874" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1875" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1876" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1877" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1878" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1879" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1880" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1881" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1882" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1883" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1884" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1885" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1886" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1887" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1888" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1889" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1890" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1891" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1892" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1893" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1894" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1895" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1896" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1897" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1898" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1899" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1900" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1901" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1902" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1903" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1904" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1905" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1906" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1907" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1908" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1909" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1910" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1911" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1912" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1913" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1914" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1915" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1916" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1917" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1918" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1919" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1920" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1921" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1922" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1923" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1924" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1925" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1926" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1927" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1928" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1929" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1930" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1931" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1932" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1933" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1934" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1935" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1936" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1937" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1938" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1939" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1940" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1941" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1942" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1943" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1944" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1945" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1946" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1947" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1948" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1949" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1950" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1951" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1952" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1953" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1954" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1955" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1956" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1957" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1958" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1959" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1960" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1961" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1962" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1963" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1964" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1965" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1966" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1967" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1968" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1969" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1970" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1971" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1972" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1973" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1974" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1975" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1976" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1977" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1978" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1979" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1980" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1981" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1982" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1983" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1984" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1985" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1986" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1987" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1988" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1989" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1990" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1991" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1992" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1993" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1994" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1995" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1996" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1997" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1998" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1999" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2000" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2001" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2002" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2003" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2004" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2005" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2006" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2007" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2008" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2009" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2010" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2011" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2012" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2013" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2014" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2015" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2016" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2017" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2018" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2019" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2020" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2021" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2022" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2023" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2024" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2025" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2026" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2027" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2028" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2029" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2030" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2031" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2032" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2033" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2034" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2035" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2036" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2037" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2038" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2039" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2040" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2041" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2042" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2043" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2044" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2045" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2046" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2047" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2048" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2049" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2050" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2051" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2052" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2053" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2054" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2055" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2056" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2057" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2058" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2059" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2060" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2061" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2062" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2063" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2064" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2065" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2066" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2067" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2068" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2069" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2070" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2071" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2072" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2073" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2074" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2075" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2076" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2077" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2078" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2079" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2080" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2081" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2082" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2083" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2084" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2085" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2086" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2087" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2088" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2089" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2090" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2091" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2092" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2093" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2094" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2095" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2096" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2097" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2098" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2099" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2499" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2500" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2501" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2502" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2503" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2504" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2505" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2506" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2507" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2508" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2509" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2510" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2511" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2512" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2513" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2514" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2515" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2516" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2517" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2518" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2519" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2520" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2521" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2522" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2523" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2524" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2525" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2526" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2527" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2528" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2529" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2530" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2531" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2532" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2533" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2534" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2535" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2536" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2538" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2539" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2540" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2541" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2542" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2543" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2544" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2545" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2546" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2547" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2548" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2549" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2550" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2551" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2552" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2553" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2554" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2555" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2556" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2557" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2558" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2559" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2560" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2561" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2562" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2563" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2564" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2565" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2566" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2567" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2568" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2569" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2570" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2571" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2572" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2573" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2574" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2575" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2576" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2577" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2578" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2579" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2580" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2581" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2582" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2583" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2584" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2585" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2586" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2587" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2588" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2589" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2590" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2591" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2592" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2593" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2594" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2595" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2596" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2597" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2598" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2599" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2600" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2601" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2602" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2603" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2604" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2605" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2606" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2607" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2608" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2609" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2610" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2611" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2612" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2613" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2614" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2615" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2616" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2617" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2618" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2619" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2620" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2621" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2622" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2623" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2624" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2625" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2626" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2627" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2628" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2629" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2630" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2631" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2632" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2633" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2634" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2635" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2636" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2637" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2638" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2639" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2640" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2641" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2642" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2643" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2644" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2645" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2646" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2647" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2648" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2649" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2650" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2651" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2652" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2653" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2654" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2655" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2656" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2657" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2658" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2659" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2660" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2661" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2662" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2663" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2664" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2665" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2666" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2667" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2668" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2669" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2670" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2671" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2672" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2673" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2674" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2675" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2676" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2677" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2678" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2679" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2680" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2681" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2682" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2683" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2684" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2685" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2686" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2687" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2688" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2689" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2690" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2691" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2692" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2693" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2694" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2695" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2696" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2697" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2698" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2699" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2700" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2701" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2702" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2703" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2704" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2705" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2706" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2707" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2708" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2709" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2710" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2711" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2712" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2713" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2714" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2715" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2716" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2717" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2718" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2719" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2720" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2721" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2722" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2723" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2724" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2725" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2726" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2727" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2728" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2729" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2730" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2731" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2732" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2733" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2734" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2735" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2736" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2737" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2738" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2739" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2740" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2741" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2742" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2743" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2744" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2745" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2746" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2747" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2748" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2749" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2750" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2751" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2752" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2753" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2754" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2755" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2756" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2757" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2758" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2759" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2760" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2761" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2762" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2763" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2764" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2765" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2766" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2767" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2768" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2769" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2770" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2771" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2772" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2773" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2774" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2775" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2776" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2777" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2778" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2779" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2780" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2781" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2782" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2783" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2784" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2785" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2786" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2787" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2788" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2789" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2790" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2791" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2792" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2793" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2794" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2795" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2796" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2797" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2798" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2799" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2800" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2801" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2802" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2803" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2804" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2805" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2806" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2807" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2808" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2809" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2810" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2811" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2812" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2813" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2814" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2815" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2816" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2817" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2818" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2819" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2820" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2821" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2822" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2823" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2824" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2825" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2826" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2827" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2828" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2829" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2830" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2831" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2832" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2833" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2834" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2835" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2836" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2837" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2838" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2839" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2840" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2841" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2842" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2843" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2844" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2845" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2846" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2847" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2848" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2849" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2850" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2851" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2852" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2853" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2854" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2855" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2856" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2857" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2858" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2859" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2860" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2861" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2862" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2863" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2864" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2865" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2866" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2867" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2868" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2869" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2870" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2871" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2872" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2873" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2874" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2875" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2876" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2877" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2878" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2879" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2880" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2881" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2882" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2883" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2884" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2885" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2886" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2887" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2888" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2889" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2890" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2891" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2892" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2893" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2894" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2895" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2896" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2897" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2898" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2899" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2900" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2901" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2902" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2903" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2904" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2905" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2906" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2907" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2908" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2909" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2910" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2911" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2912" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2913" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2914" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2915" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2916" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2917" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2918" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2919" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2920" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2921" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2922" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2923" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2924" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2925" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2926" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2927" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2928" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2929" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2930" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2931" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2932" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2933" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2934" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2935" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2936" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2937" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2938" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2939" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2940" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2941" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2942" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2943" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2944" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2945" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2946" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2947" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2948" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2949" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2950" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2951" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2952" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2953" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2954" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2955" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2956" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2957" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2958" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2959" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2960" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2961" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2962" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2963" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2964" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2965" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2966" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2967" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2968" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2969" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2970" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2971" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2972" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2973" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2974" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2975" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2976" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2977" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2978" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2979" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2980" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2981" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2982" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2983" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2984" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2985" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2986" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2987" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2988" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2989" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2990" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2991" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2992" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2993" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2994" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2995" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2996" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2997" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2998" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2999" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3000" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3001" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3002" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3003" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3004" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3005" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3006" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3007" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3008" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3009" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3010" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3011" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3012" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3013" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3014" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3015" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3016" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3017" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3018" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3019" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3020" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3021" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3022" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3023" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3024" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3025" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3026" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3027" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3028" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3029" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3030" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3031" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3032" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3033" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3034" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3035" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3036" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3037" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3038" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3039" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3040" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3041" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3042" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3043" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3044" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3045" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3046" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3047" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3048" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3049" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3050" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3051" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3052" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3053" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3054" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3055" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3056" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3057" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3058" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3059" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3060" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3061" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3062" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3063" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3064" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3065" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3066" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3067" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3068" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3069" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3070" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3071" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3072" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3073" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3074" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3075" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3076" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3077" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3078" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3079" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3080" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3081" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3082" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3083" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3084" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3085" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3086" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3087" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3088" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3089" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3090" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3091" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3092" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3093" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3094" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3095" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3096" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3097" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3098" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3099" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3499" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3500" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3501" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3502" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3503" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3504" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3505" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3506" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3507" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3508" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3509" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3510" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3511" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3512" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3513" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3514" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3515" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3516" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3517" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3518" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3519" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3520" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3521" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3522" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3523" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3524" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3525" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3526" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3527" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3528" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3529" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3530" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3531" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3532" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3533" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3534" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3535" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3536" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3538" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3539" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3540" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3541" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3542" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3543" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3544" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3545" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3546" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3547" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3548" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3549" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3550" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3551" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3552" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3553" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3554" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3555" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3556" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3557" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3558" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3559" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3560" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3561" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3562" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3563" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3564" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3565" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3566" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3567" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3568" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3569" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3570" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3571" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3572" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3573" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3574" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3575" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3576" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3577" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3578" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3579" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3580" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3581" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3582" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3583" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3584" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3585" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3586" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3587" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3588" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3589" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3590" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3591" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3592" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3593" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3594" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3595" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3596" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3597" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3598" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3599" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3600" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3601" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3602" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3603" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3604" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3605" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3606" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3607" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3608" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3609" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3610" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3611" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3612" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3613" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3614" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3615" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3616" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3617" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3618" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3619" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3620" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3621" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3622" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3623" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3624" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3625" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3626" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3627" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3628" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3629" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3630" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3631" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3632" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3633" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3634" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3635" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3636" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3637" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3638" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3639" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3640" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3641" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3642" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3643" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3644" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3645" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3646" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3647" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3648" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3649" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3650" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3651" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3652" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3653" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3654" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3655" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3656" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3657" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3658" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3659" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3660" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3661" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3662" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3663" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3664" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3665" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3666" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3667" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3668" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3669" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3670" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3671" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3672" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3673" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3674" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3675" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3676" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3677" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3678" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3679" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3680" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3681" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3682" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3683" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3684" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3685" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3686" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3687" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3688" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3689" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3690" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3691" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3692" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3693" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3694" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3695" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3696" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3697" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3698" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3699" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3700" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3701" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3702" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3703" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3704" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3705" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3706" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3707" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3708" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3709" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3710" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3711" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3712" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3713" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3714" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3715" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3716" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3717" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3718" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3719" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3720" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3721" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3722" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3723" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3724" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3725" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3726" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3727" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3728" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3729" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3730" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3731" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3732" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3733" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3734" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3735" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3736" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3737" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3738" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3739" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3740" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3741" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3742" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3743" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3744" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3745" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3746" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3747" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3748" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3749" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3750" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3751" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3752" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3753" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3754" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3755" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3756" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3757" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3758" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3759" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3760" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3761" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3762" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3763" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3764" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:O1"/>
